--- a/ANN_Modified/Data/Optimised_Networks/Predictions/2_4-4_106_0.008_50 predictions_manual_offline 6.xlsx
+++ b/ANN_Modified/Data/Optimised_Networks/Predictions/2_4-4_106_0.008_50 predictions_manual_offline 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Modified\Data\Optimised_Networks\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A36D33-116D-4E87-A2B4-F21E66F74971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56B05E-568B-4125-9FDF-8C6AD742A591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7667,9 +7667,6 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>7.6999999999999999E-2</v>
-          </cell>
           <cell r="I2">
             <v>0</v>
           </cell>
@@ -8028,7 +8025,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="B16" sqref="B16:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
